--- a/biology/Zoologie/Chaetodipus_dalquesti/Chaetodipus_dalquesti.xlsx
+++ b/biology/Zoologie/Chaetodipus_dalquesti/Chaetodipus_dalquesti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaetodipus dalquesti est une espèce qui fait partie des mammifères Rongeurs de la famille des Heteromyidae. Ce sont des souris à poches[1], c'est-à-dire à larges abajoues, et à poil dur. Cet animal est endémique du Mexique. C'est une espèce menacée, classée vulnérable en 2008 par l'UICN. 
-L'espèce a été décrite pour la première fois en 1976 par le zoologiste Edward L. Roth, sous le nom de Perognathus dalquesti[2] et nommée en hommage au biologiste et zoologiste américain, Walter Woelbert Dalquest (1917-2000)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaetodipus dalquesti est une espèce qui fait partie des mammifères Rongeurs de la famille des Heteromyidae. Ce sont des souris à poches, c'est-à-dire à larges abajoues, et à poil dur. Cet animal est endémique du Mexique. C'est une espèce menacée, classée vulnérable en 2008 par l'UICN. 
+L'espèce a été décrite pour la première fois en 1976 par le zoologiste Edward L. Roth, sous le nom de Perognathus dalquesti et nommée en hommage au biologiste et zoologiste américain, Walter Woelbert Dalquest (1917-2000).
 </t>
         </is>
       </c>
